--- a/testData/passwd_envelope_test_data.xlsx
+++ b/testData/passwd_envelope_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_passwd_envelope" sheetId="3" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\testIsomp\testData\envelope_image.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>同步图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -198,7 +194,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.13</t>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\testIsompSecret\testData\envelope_image.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -738,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8">
-        <v>8890</v>
+        <v>7990</v>
       </c>
       <c r="F2" s="8">
-        <v>8990</v>
+        <v>7890</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -762,11 +762,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="zlj@fort.cn"/>
-    <hyperlink ref="E2" r:id="rId2" display="Admin@123"/>
-    <hyperlink ref="F2" r:id="rId3" display="Admin@123"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -775,14 +773,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
     <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
@@ -814,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
@@ -832,7 +830,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,13 +853,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +904,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -918,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -974,59 +972,59 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="12"/>
@@ -1035,53 +1033,53 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14">
         <v>8990</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1089,10 +1087,10 @@
         <v>8890</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
